--- a/заказы/статистика филиалы/2023/10,23/26,10,23 ЗПФ/дв 26,10,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/26,10,23 ЗПФ/дв 26,10,23 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\26,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\26,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4219E10-6485-4FEE-AD02-5CF6B8B6D3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73A6B31-B4B2-4A10-9254-25C5CE522C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,10 +242,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -513,6 +517,7 @@
           <cell r="A1" t="str">
             <v>Период: 12.10.2023 - 19.10.2023</v>
           </cell>
+          <cell r="B1"/>
         </row>
         <row r="2">
           <cell r="AB2" t="str">
@@ -594,6 +599,7 @@
           <cell r="A4" t="str">
             <v>Номенклатура</v>
           </cell>
+          <cell r="B4"/>
           <cell r="C4" t="str">
             <v>АКЦИИ</v>
           </cell>
@@ -617,6 +623,8 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
+          <cell r="B5"/>
           <cell r="F5">
             <v>16643.8</v>
           </cell>
@@ -3117,7 +3125,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -3590,7 +3598,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="AA8" s="28">
-        <f t="shared" ref="AA7:AA37" si="9">O8/Z8</f>
+        <f t="shared" ref="AA8:AA33" si="9">O8/Z8</f>
         <v>0</v>
       </c>
       <c r="AB8" s="2">
